--- a/Chapter 3: Modularity, Objects and State/3.5 Streams/Exercise 3.75 zero-crossings on noisy signal 1.xlsx
+++ b/Chapter 3: Modularity, Objects and State/3.5 Streams/Exercise 3.75 zero-crossings on noisy signal 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vranganath/Data/Initiatives/TechStuff/SICP/Chapter 3: Modularity, Objects and State/3.5 Streams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C4DC5D-72BD-CA43-AE7C-489BC43C1830}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9A5C05-3BA8-164D-A590-2E0D83C4FCA7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="1800" windowWidth="46560" windowHeight="24560" xr2:uid="{C692BA2E-8BAE-2046-82EF-7F0EC59427C0}"/>
+    <workbookView xWindow="180" yWindow="640" windowWidth="48900" windowHeight="26360" xr2:uid="{C692BA2E-8BAE-2046-82EF-7F0EC59427C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1491,8 +1491,8 @@
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>541865</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>160867</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>93132</xdr:rowOff>
     </xdr:to>
